--- a/output/Restab_D62_NTCwRAPA_noDIFF_RAPA.xlsx
+++ b/output/Restab_D62_NTCwRAPA_noDIFF_RAPA.xlsx
@@ -12,45 +12,348 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonferroni_2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonferroni_2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEbrown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEblue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEgreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEblack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEturquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEyellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEgrey</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+  <si>
+    <t xml:space="preserve">entrezgene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log2FC_2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdr_2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log2FC_2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdr_2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VWA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STMN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRAS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADGRL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGS16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNIH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">642938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSYN2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFITM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRYAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITPR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBA1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMTC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105376684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISLR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">643911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNAO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELAVL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYH14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCAN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSCAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAP43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM4SF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HES1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGFBP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARCL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5orf63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDKN1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEG10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTK2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STMN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHST7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENM1</t>
   </si>
 </sst>
 </file>
@@ -398,141 +701,1152 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0637014203657977</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.803024527122344</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00775467907586059</v>
+        <v>0.0146052215942605</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.857335866955853</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0237903321953631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.0828736024958911</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>-0.562199724135866</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0281239376345365</v>
+        <v>0.00593154896690487</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>-0.613626261975113</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0193375892631973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.0735316052235318</v>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1.98345941683438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0386197328559717</v>
+        <v>0.0000000000000000399309572267816</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>1.5497197176465</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000000214100591176177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.0712920952479926</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>1.85919063648094</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0297692449389189</v>
+        <v>0.000075364182501434</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>1.65884195359864</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00375627913562571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.0940696134501057</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00691679811603232</v>
+        <v>1.12605142512465</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0609351742535368</v>
+        <v>0.00000111640516323136</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0211805127176514</v>
+        <v>1.07034773326735</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00232096144661853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.00579148184600883</v>
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>1.51528617786676</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00692933484545155</v>
+        <v>0.0000432196944541257</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>1.35918384988172</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00371208932849822</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.0509551260611999</v>
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.867698203745605</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0134543123111963</v>
+        <v>0.00769807631752337</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>1.00936731418183</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00352998984343027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.120824426310683</v>
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>0.609904239735303</v>
+        <v>-1.31837948074779</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.107417138456045</v>
+        <v>0.000720615314448345</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>-1.59017304849411</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000129053849271864</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.25929551966899</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.000105739776998713</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.28425522648884</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000000010290164291419</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.47832968917096</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.000000124247013302416</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.31813418692314</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0000531525654439415</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.652884851729153</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0076862519446708</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.709590972145289</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.00337723529340095</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.47369057767727</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0000794505719285107</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.4792115191615</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.000676993894910929</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.83531784776068</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.00001261908637998</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.780623226111257</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0122251562639815</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.979542938324743</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.00855230212221788</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.27611420170593</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.00432022679960579</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="n">
+        <v>-7.36116548771168</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.00734336287821606</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-7.2311260491824</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0174450535146421</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="n">
+        <v>1.80173862955682</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0000333274303370393</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.73520763443088</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.000242421118630824</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.819627524774808</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.000271017857255508</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.791547338510803</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0026887991153072</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.40792461653424</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0235894021863387</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.34746526372599</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0424607516037556</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.17315437251572</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0000000125836375868722</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.04550904793423</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.00352998984343027</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.0859712101705</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0000119418266216454</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.749394747417186</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0356612714942147</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="n">
+        <v>2.74709489835822</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0248214582868131</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.97389260982543</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0046724504738909</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.15358741649654</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.00000871518261082509</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.919282569153282</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00412469294936824</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.48116436484047</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00000194250824368213</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.87920985263282</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.000920709993933248</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.484388368774875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0140343512472618</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.523951009378164</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0172462263072239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.75963830839113</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.00239615926906972</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.823899810233981</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0046724504738909</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.773307309146397</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.00579329535309017</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.780462650373049</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.027245633409993</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.10370313141053</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0000592037771751453</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.04849688538786</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.00232096144661853</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.85132158419504</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00000033085292302078</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.30259069279001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.026362598786861</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="n">
+        <v>0.947704057585945</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0000212458243772271</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.00359724635242</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0000115312905116196</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.22017302004063</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.000000987955323017618</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.02555447211863</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.000325674430522403</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.66857474522333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0094360879541406</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.736070458292616</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.00895326544951906</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.34602662667854</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.00798957595646354</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.78742280085928</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00000672468823362179</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.32434242356436</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0000000000000000000000248180823857209</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.928854623383575</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.000000010290164291419</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.639817948911494</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0392636736083786</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.7974155320249</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0117373502154301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" t="n">
+        <v>7.23988082423914</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.00579329535309017</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.57408403601381</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.00232096144661853</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.84260959581751</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.000000699397891132922</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.45871776410512</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.00371208932849822</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.747675255578856</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.000886669876273432</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.705472033275372</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0143833036183463</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.03360881123035</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.00000000000000000000000000000441486143809398</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.13444784872813</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0000000000000000000000000000478705619272176</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.572995654180006</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.00132896758889162</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.655970472340362</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.00208034923157284</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.67619674530789</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0000000332613911401637</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.7055759461377</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.00560570732434693</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.67953511942426</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0281348537547214</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.87976465381471</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.00120193866849098</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="n">
+        <v>0.97743370791533</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.00253124298731603</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.788791144934297</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0248368650612134</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.08561097033032</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.00000000000000807805684520449</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.84759175923254</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.00000102341062939025</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.987191958211627</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0469232531423794</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1.19131755137577</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0281576941763712</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1.91806156720759</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0000000945404826340551</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.57153465208843</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.00000504298285989318</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.715548920509017</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.00160064065883953</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.736507259657828</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.00620148379147095</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2.28550331268992</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0000829711967633413</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-1.84520778938527</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.00920331244254874</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" t="n">
+        <v>-0.490305201030296</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.00834677277830831</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.586482237086516</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0046724504738909</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.93049141651382</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0000333274303370393</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.11179226624005</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.00000174054901336503</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.20180581723776</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0000130140203836906</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.2900633119617</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0000151955202827711</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.67329044651593</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0000000000493821832531792</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.40235708315675</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0000115312905116196</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.594783213521477</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.00599158535138424</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.580362479950425</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0193375892631973</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-6.0356502771754</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.00756098764232521</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-7.7099259138391</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.00152684015068612</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.54974077898464</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.00000252942831537797</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.0759024368371</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0450676101400625</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56" t="n">
+        <v>1.77388211780055</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.000000000000000120590728983095</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.60941494894721</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.00000000171108925423028</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.08340894511047</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.000402057290479981</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.12879039591932</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.00232096144661853</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.04022342585366</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.000574793174109503</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.30254735895524</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.00000102341062939025</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.32977546205069</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.000105739776998713</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.37482406152596</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.00746314742836923</v>
       </c>
     </row>
   </sheetData>

--- a/output/Restab_D62_NTCwRAPA_noDIFF_RAPA.xlsx
+++ b/output/Restab_D62_NTCwRAPA_noDIFF_RAPA.xlsx
@@ -713,16 +713,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.803024527122344</v>
+        <v>0.803024527122363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0146052215942605</v>
+        <v>0.0146052215982969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.857335866955853</v>
+        <v>0.857335866955829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0237903321953631</v>
+        <v>0.0237903321838103</v>
       </c>
     </row>
     <row r="3">
@@ -733,16 +733,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.562199724135866</v>
+        <v>-0.562199724135852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00593154896690487</v>
+        <v>0.00593154897005834</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.613626261975113</v>
+        <v>-0.613626261975126</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0193375892631973</v>
+        <v>0.0193375892442095</v>
       </c>
     </row>
     <row r="4">
@@ -756,13 +756,13 @@
         <v>1.98345941683438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0000000000000000399309572267816</v>
+        <v>0.0000000000000000399309572928647</v>
       </c>
       <c r="E4" t="n">
         <v>1.5497197176465</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000000214100591176177</v>
+        <v>0.000000214100590935412</v>
       </c>
     </row>
     <row r="5">
@@ -773,16 +773,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>1.85919063648094</v>
+        <v>1.85919063648097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000075364182501434</v>
+        <v>0.0000753641825291644</v>
       </c>
       <c r="E5" t="n">
-        <v>1.65884195359864</v>
+        <v>1.65884195359863</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00375627913562571</v>
+        <v>0.0037562791348273</v>
       </c>
     </row>
     <row r="6">
@@ -793,16 +793,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>1.12605142512465</v>
+        <v>1.12605142512464</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00000111640516323136</v>
+        <v>0.00000111640516413804</v>
       </c>
       <c r="E6" t="n">
         <v>1.07034773326735</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00232096144661853</v>
+        <v>0.00232096144534257</v>
       </c>
     </row>
     <row r="7">
@@ -813,16 +813,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>1.51528617786676</v>
+        <v>1.51528617786675</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0000432196944541257</v>
+        <v>0.0000432196944724754</v>
       </c>
       <c r="E7" t="n">
-        <v>1.35918384988172</v>
+        <v>1.35918384988173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00371208932849822</v>
+        <v>0.00371208932747863</v>
       </c>
     </row>
     <row r="8">
@@ -833,16 +833,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>0.867698203745605</v>
+        <v>0.867698203745593</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00769807631752337</v>
+        <v>0.0076980763197772</v>
       </c>
       <c r="E8" t="n">
-        <v>1.00936731418183</v>
+        <v>1.00936731418187</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00352998984343027</v>
+        <v>0.00352998984105464</v>
       </c>
     </row>
     <row r="9">
@@ -853,16 +853,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.31837948074779</v>
+        <v>-1.3183794807478</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000720615314448345</v>
+        <v>0.000720615314699938</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.59017304849411</v>
+        <v>-1.59017304849412</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000129053849271864</v>
+        <v>0.000129053849211871</v>
       </c>
     </row>
     <row r="10">
@@ -873,16 +873,16 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.25929551966899</v>
+        <v>-2.25929551966894</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000105739776998713</v>
+        <v>0.000105739777042544</v>
       </c>
       <c r="E10" t="n">
         <v>-2.28425522648884</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000000010290164291419</v>
+        <v>0.0000000102901642843879</v>
       </c>
     </row>
     <row r="11">
@@ -893,16 +893,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>1.47832968917096</v>
+        <v>1.47832968917089</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000000124247013302416</v>
+        <v>0.000000124247013450251</v>
       </c>
       <c r="E11" t="n">
-        <v>1.31813418692314</v>
+        <v>1.31813418692321</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000531525654439415</v>
+        <v>0.0000531525654021326</v>
       </c>
     </row>
     <row r="12">
@@ -913,16 +913,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>0.652884851729153</v>
+        <v>0.652884851729145</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0076862519446708</v>
+        <v>0.00768625194778392</v>
       </c>
       <c r="E12" t="n">
-        <v>0.709590972145289</v>
+        <v>0.709590972145265</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00337723529340095</v>
+        <v>0.00337723528928392</v>
       </c>
     </row>
     <row r="13">
@@ -933,16 +933,16 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>1.47369057767727</v>
+        <v>1.47369057767729</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0000794505719285107</v>
+        <v>0.0000794505719604848</v>
       </c>
       <c r="E13" t="n">
-        <v>1.4792115191615</v>
+        <v>1.47921151916145</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000676993894910929</v>
+        <v>0.000676993894627051</v>
       </c>
     </row>
     <row r="14">
@@ -953,16 +953,16 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.83531784776068</v>
+        <v>0.835317847760695</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00001261908637998</v>
+        <v>0.0000126190863938955</v>
       </c>
       <c r="E14" t="n">
-        <v>0.780623226111257</v>
+        <v>0.780623226111247</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0122251562639815</v>
+        <v>0.0122251562546915</v>
       </c>
     </row>
     <row r="15">
@@ -973,16 +973,16 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.979542938324743</v>
+        <v>-0.979542938324726</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00855230212221788</v>
+        <v>0.00855230212705281</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.27611420170593</v>
+        <v>-1.27611420170591</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00432022679960579</v>
+        <v>0.00432022679803373</v>
       </c>
     </row>
     <row r="16">
@@ -991,16 +991,16 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="n">
-        <v>-7.36116548771168</v>
+        <v>-7.36116548771166</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00734336287821606</v>
+        <v>0.00734336287903682</v>
       </c>
       <c r="E16" t="n">
         <v>-7.2311260491824</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0174450535146421</v>
+        <v>0.0174450535144189</v>
       </c>
     </row>
     <row r="17">
@@ -1009,16 +1009,16 @@
       </c>
       <c r="B17"/>
       <c r="C17" t="n">
-        <v>1.80173862955682</v>
+        <v>1.80173862955676</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0000333274303370393</v>
+        <v>0.0000333274303500626</v>
       </c>
       <c r="E17" t="n">
-        <v>1.73520763443088</v>
+        <v>1.73520763443093</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000242421118630824</v>
+        <v>0.000242421118543712</v>
       </c>
     </row>
     <row r="18">
@@ -1029,16 +1029,16 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.819627524774808</v>
+        <v>-0.819627524774805</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000271017857255508</v>
+        <v>0.000271017857412466</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.791547338510803</v>
+        <v>-0.791547338510789</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0026887991153072</v>
+        <v>0.00268879911252574</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.40792461653424</v>
+        <v>-1.40792461653429</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0235894021863387</v>
+        <v>0.0235894021905429</v>
       </c>
       <c r="E19" t="n">
         <v>-1.34746526372599</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0424607516037556</v>
+        <v>0.0424607515973643</v>
       </c>
     </row>
     <row r="20">
@@ -1069,16 +1069,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>1.17315437251572</v>
+        <v>1.17315437251571</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0000000125836375868722</v>
+        <v>0.0000000125836376002689</v>
       </c>
       <c r="E20" t="n">
-        <v>1.04550904793423</v>
+        <v>1.04550904793425</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00352998984343027</v>
+        <v>0.00352998984105464</v>
       </c>
     </row>
     <row r="21">
@@ -1089,16 +1089,16 @@
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.0859712101705</v>
+        <v>-1.08597121017049</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0000119418266216454</v>
+        <v>0.0000119418266261638</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.749394747417186</v>
+        <v>-0.74939474741721</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0356612714942147</v>
+        <v>0.035661271475855</v>
       </c>
     </row>
     <row r="22">
@@ -1107,16 +1107,16 @@
       </c>
       <c r="B22"/>
       <c r="C22" t="n">
-        <v>2.74709489835822</v>
+        <v>2.74709489835805</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0248214582868131</v>
+        <v>0.0248214582963941</v>
       </c>
       <c r="E22" t="n">
-        <v>2.97389260982543</v>
+        <v>2.97389260982551</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0046724504738909</v>
+        <v>0.00467245047353629</v>
       </c>
     </row>
     <row r="23">
@@ -1127,16 +1127,16 @@
         <v>46</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.15358741649654</v>
+        <v>-1.15358741649653</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00000871518261082509</v>
+        <v>0.00000871518261657887</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.919282569153282</v>
+        <v>-0.919282569153303</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00412469294936824</v>
+        <v>0.00412469294664947</v>
       </c>
     </row>
     <row r="24">
@@ -1147,16 +1147,16 @@
         <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>6.48116436484047</v>
+        <v>6.48116436483954</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00000194250824368213</v>
+        <v>0.00000194250824410853</v>
       </c>
       <c r="E24" t="n">
-        <v>5.87920985263282</v>
+        <v>5.87920985263304</v>
       </c>
       <c r="F24" t="n">
-        <v>0.000920709993933248</v>
+        <v>0.000920709993897581</v>
       </c>
     </row>
     <row r="25">
@@ -1167,16 +1167,16 @@
         <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>0.484388368774875</v>
+        <v>0.48438836877488</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0140343512472618</v>
+        <v>0.0140343512544783</v>
       </c>
       <c r="E25" t="n">
-        <v>0.523951009378164</v>
+        <v>0.523951009378171</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0172462263072239</v>
+        <v>0.0172462263069986</v>
       </c>
     </row>
     <row r="26">
@@ -1187,16 +1187,16 @@
         <v>52</v>
       </c>
       <c r="C26" t="n">
-        <v>0.75963830839113</v>
+        <v>0.759638308391151</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00239615926906972</v>
+        <v>0.00239615927012473</v>
       </c>
       <c r="E26" t="n">
-        <v>0.823899810233981</v>
+        <v>0.823899810233953</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0046724504738909</v>
+        <v>0.00467245047353629</v>
       </c>
     </row>
     <row r="27">
@@ -1207,16 +1207,16 @@
         <v>54</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.773307309146397</v>
+        <v>-0.773307309146422</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00579329535309017</v>
+        <v>0.00579329535523683</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.780462650373049</v>
+        <v>-0.78046265037301</v>
       </c>
       <c r="F27" t="n">
-        <v>0.027245633409993</v>
+        <v>0.0272456333955821</v>
       </c>
     </row>
     <row r="28">
@@ -1230,13 +1230,13 @@
         <v>1.10370313141053</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0000592037771751453</v>
+        <v>0.000059203777207075</v>
       </c>
       <c r="E28" t="n">
-        <v>1.04849688538786</v>
+        <v>1.04849688538784</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00232096144661853</v>
+        <v>0.00232096144534257</v>
       </c>
     </row>
     <row r="29">
@@ -1247,16 +1247,16 @@
         <v>58</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.85132158419504</v>
+        <v>-3.85132158419473</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00000033085292302078</v>
+        <v>0.000000330852923146085</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.30259069279001</v>
+        <v>-2.30259069278999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.026362598786861</v>
+        <v>0.0263625987847445</v>
       </c>
     </row>
     <row r="30">
@@ -1265,16 +1265,16 @@
       </c>
       <c r="B30"/>
       <c r="C30" t="n">
-        <v>0.947704057585945</v>
+        <v>0.947704057585926</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0000212458243772271</v>
+        <v>0.000021245824384932</v>
       </c>
       <c r="E30" t="n">
-        <v>1.00359724635242</v>
+        <v>1.00359724635245</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0000115312905116196</v>
+        <v>0.0000115312904929345</v>
       </c>
     </row>
     <row r="31">
@@ -1285,16 +1285,16 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>1.22017302004063</v>
+        <v>1.22017302004064</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000000987955323017618</v>
+        <v>0.000000987955323720047</v>
       </c>
       <c r="E31" t="n">
-        <v>1.02555447211863</v>
+        <v>1.02555447211861</v>
       </c>
       <c r="F31" t="n">
-        <v>0.000325674430522403</v>
+        <v>0.00032567443021256</v>
       </c>
     </row>
     <row r="32">
@@ -1305,16 +1305,16 @@
         <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>0.66857474522333</v>
+        <v>0.668574745223361</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0094360879541406</v>
+        <v>0.00943608795768401</v>
       </c>
       <c r="E32" t="n">
-        <v>0.736070458292616</v>
+        <v>0.736070458292555</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00895326544951906</v>
+        <v>0.00895326544192206</v>
       </c>
     </row>
     <row r="33">
@@ -1325,16 +1325,16 @@
         <v>65</v>
       </c>
       <c r="C33" t="n">
-        <v>1.34602662667854</v>
+        <v>1.3460266266786</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00798957595646354</v>
+        <v>0.00798957595782026</v>
       </c>
       <c r="E33" t="n">
-        <v>1.78742280085928</v>
+        <v>1.78742280085923</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00000672468823362179</v>
+        <v>0.00000672468822976791</v>
       </c>
     </row>
     <row r="34">
@@ -1345,16 +1345,16 @@
         <v>67</v>
       </c>
       <c r="C34" t="n">
-        <v>1.32434242356436</v>
+        <v>1.32434242356434</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0000000000000000000000248180823857209</v>
+        <v>0.0000000000000000000000248180824859508</v>
       </c>
       <c r="E34" t="n">
-        <v>0.928854623383575</v>
+        <v>0.928854623383601</v>
       </c>
       <c r="F34" t="n">
-        <v>0.000000010290164291419</v>
+        <v>0.0000000102901642843879</v>
       </c>
     </row>
     <row r="35">
@@ -1365,16 +1365,16 @@
         <v>69</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.639817948911494</v>
+        <v>-0.639817948911472</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0392636736083786</v>
+        <v>0.0392636736189804</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.7974155320249</v>
+        <v>-0.797415532024932</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0117373502154301</v>
+        <v>0.0117373502074275</v>
       </c>
     </row>
     <row r="36">
@@ -1383,16 +1383,16 @@
       </c>
       <c r="B36"/>
       <c r="C36" t="n">
-        <v>7.23988082423914</v>
+        <v>7.23988082423917</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00579329535309017</v>
+        <v>0.00579329535523683</v>
       </c>
       <c r="E36" t="n">
         <v>7.57408403601381</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00232096144661853</v>
+        <v>0.00232096144534257</v>
       </c>
     </row>
     <row r="37">
@@ -1403,16 +1403,16 @@
         <v>72</v>
       </c>
       <c r="C37" t="n">
-        <v>1.84260959581751</v>
+        <v>1.84260959581753</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000000699397891132922</v>
+        <v>0.000000699397891530721</v>
       </c>
       <c r="E37" t="n">
-        <v>1.45871776410512</v>
+        <v>1.45871776410511</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00371208932849822</v>
+        <v>0.00371208932747863</v>
       </c>
     </row>
     <row r="38">
@@ -1423,16 +1423,16 @@
         <v>74</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.747675255578856</v>
+        <v>-0.747675255578869</v>
       </c>
       <c r="D38" t="n">
-        <v>0.000886669876273432</v>
+        <v>0.000886669876738786</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.705472033275372</v>
+        <v>-0.705472033275348</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0143833036183463</v>
+        <v>0.0143833036057943</v>
       </c>
     </row>
     <row r="39">
@@ -1443,16 +1443,16 @@
         <v>76</v>
       </c>
       <c r="C39" t="n">
-        <v>2.03360881123035</v>
+        <v>2.03360881123037</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00000000000000000000000000000441486143809398</v>
+        <v>0.00000000000000000000000000000441486145416461</v>
       </c>
       <c r="E39" t="n">
-        <v>2.13444784872813</v>
+        <v>2.13444784872811</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0000000000000000000000000000478705619272176</v>
+        <v>0.0000000000000000000000000000478705616077243</v>
       </c>
     </row>
     <row r="40">
@@ -1463,16 +1463,16 @@
         <v>78</v>
       </c>
       <c r="C40" t="n">
-        <v>0.572995654180006</v>
+        <v>0.572995654180002</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00132896758889162</v>
+        <v>0.00132896758982376</v>
       </c>
       <c r="E40" t="n">
-        <v>0.655970472340362</v>
+        <v>0.655970472340367</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00208034923157284</v>
+        <v>0.00208034922814375</v>
       </c>
     </row>
     <row r="41">
@@ -1483,16 +1483,16 @@
         <v>80</v>
       </c>
       <c r="C41" t="n">
-        <v>2.67619674530789</v>
+        <v>2.67619674530787</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0000000332613911401637</v>
+        <v>0.0000000332613911548909</v>
       </c>
       <c r="E41" t="n">
-        <v>1.7055759461377</v>
+        <v>1.70557594613774</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00560570732434693</v>
+        <v>0.00560570732116854</v>
       </c>
     </row>
     <row r="42">
@@ -1503,16 +1503,16 @@
         <v>82</v>
       </c>
       <c r="C42" t="n">
-        <v>0.67953511942426</v>
+        <v>0.679535119424277</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0281348537547214</v>
+        <v>0.0281348537574803</v>
       </c>
       <c r="E42" t="n">
-        <v>0.87976465381471</v>
+        <v>0.879764653814712</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00120193866849098</v>
+        <v>0.00120193866728114</v>
       </c>
     </row>
     <row r="43">
@@ -1521,16 +1521,16 @@
       </c>
       <c r="B43"/>
       <c r="C43" t="n">
-        <v>0.97743370791533</v>
+        <v>0.977433707915303</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00253124298731603</v>
+        <v>0.002531242988148</v>
       </c>
       <c r="E43" t="n">
-        <v>0.788791144934297</v>
+        <v>0.78879114493431</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0248368650612134</v>
+        <v>0.0248368650483253</v>
       </c>
     </row>
     <row r="44">
@@ -1541,16 +1541,16 @@
         <v>85</v>
       </c>
       <c r="C44" t="n">
-        <v>1.08561097033032</v>
+        <v>1.08561097033031</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00000000000000807805684520449</v>
+        <v>0.00000000000000807805686636819</v>
       </c>
       <c r="E44" t="n">
-        <v>0.84759175923254</v>
+        <v>0.847591759232554</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00000102341062939025</v>
+        <v>0.00000102341062804039</v>
       </c>
     </row>
     <row r="45">
@@ -1561,16 +1561,16 @@
         <v>87</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.987191958211627</v>
+        <v>-0.987191958211657</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0469232531423794</v>
+        <v>0.0469232531503915</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.19131755137577</v>
+        <v>-1.19131755137575</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0281576941763712</v>
+        <v>0.0281576941692805</v>
       </c>
     </row>
     <row r="46">
@@ -1581,16 +1581,16 @@
         <v>89</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.91806156720759</v>
+        <v>-1.91806156720766</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0000000945404826340551</v>
+        <v>0.0000000945404826884585</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.57153465208843</v>
+        <v>-1.5715346520884</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00000504298285989318</v>
+        <v>0.00000504298285585123</v>
       </c>
     </row>
     <row r="47">
@@ -1601,16 +1601,16 @@
         <v>91</v>
       </c>
       <c r="C47" t="n">
-        <v>0.715548920509017</v>
+        <v>0.715548920509021</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00160064065883953</v>
+        <v>0.00160064065964713</v>
       </c>
       <c r="E47" t="n">
-        <v>0.736507259657828</v>
+        <v>0.736507259657821</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00620148379147095</v>
+        <v>0.00620148378922694</v>
       </c>
     </row>
     <row r="48">
@@ -1621,16 +1621,16 @@
         <v>93</v>
       </c>
       <c r="C48" t="n">
-        <v>-2.28550331268992</v>
+        <v>-2.28550331268981</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0000829711967633413</v>
+        <v>0.0000829711967905728</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.84520778938527</v>
+        <v>-1.8452077893853</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00920331244254874</v>
+        <v>0.00920331244127675</v>
       </c>
     </row>
     <row r="49">
@@ -1639,16 +1639,16 @@
       </c>
       <c r="B49"/>
       <c r="C49" t="n">
-        <v>-0.490305201030296</v>
+        <v>-0.490305201030294</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00834677277830831</v>
+        <v>0.00834677278327059</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.586482237086516</v>
+        <v>-0.58648223708651</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0046724504738909</v>
+        <v>0.00467245047353629</v>
       </c>
     </row>
     <row r="50">
@@ -1662,13 +1662,13 @@
         <v>1.93049141651382</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0000333274303370393</v>
+        <v>0.0000333274303500626</v>
       </c>
       <c r="E50" t="n">
-        <v>2.11179226624005</v>
+        <v>2.11179226624003</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00000174054901336503</v>
+        <v>0.00000174054901252189</v>
       </c>
     </row>
     <row r="51">
@@ -1682,13 +1682,13 @@
         <v>1.20180581723776</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0000130140203836906</v>
+        <v>0.0000130140203912117</v>
       </c>
       <c r="E51" t="n">
         <v>1.2900633119617</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0000151955202827711</v>
+        <v>0.0000151955202681061</v>
       </c>
     </row>
     <row r="52">
@@ -1702,13 +1702,13 @@
         <v>1.67329044651593</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0000000000493821832531792</v>
+        <v>0.0000000000493821833075238</v>
       </c>
       <c r="E52" t="n">
-        <v>1.40235708315675</v>
+        <v>1.40235708315674</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0000115312905116196</v>
+        <v>0.0000115312904929345</v>
       </c>
     </row>
     <row r="53">
@@ -1719,16 +1719,16 @@
         <v>102</v>
       </c>
       <c r="C53" t="n">
-        <v>0.594783213521477</v>
+        <v>0.594783213521469</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00599158535138424</v>
+        <v>0.00599158535441391</v>
       </c>
       <c r="E53" t="n">
-        <v>0.580362479950425</v>
+        <v>0.580362479950406</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0193375892631973</v>
+        <v>0.0193375892442095</v>
       </c>
     </row>
     <row r="54">
@@ -1739,16 +1739,16 @@
         <v>104</v>
       </c>
       <c r="C54" t="n">
-        <v>-6.0356502771754</v>
+        <v>-6.03565027717613</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00756098764232521</v>
+        <v>0.0075609876431224</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.7099259138391</v>
+        <v>-7.70992591383911</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00152684015068612</v>
+        <v>0.00152684015065415</v>
       </c>
     </row>
     <row r="55">
@@ -1759,16 +1759,16 @@
         <v>106</v>
       </c>
       <c r="C55" t="n">
-        <v>1.54974077898464</v>
+        <v>1.54974077898462</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00000252942831537797</v>
+        <v>0.00000252942831669464</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0759024368371</v>
+        <v>1.07590243683713</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0450676101400625</v>
+        <v>0.0450676101286741</v>
       </c>
     </row>
     <row r="56">
@@ -1777,16 +1777,16 @@
       </c>
       <c r="B56"/>
       <c r="C56" t="n">
-        <v>1.77388211780055</v>
+        <v>1.7738821178005</v>
       </c>
       <c r="D56" t="n">
-        <v>0.000000000000000120590728983095</v>
+        <v>0.00000000000000012059072919336</v>
       </c>
       <c r="E56" t="n">
-        <v>1.60941494894721</v>
+        <v>1.60941494894727</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00000000171108925423028</v>
+        <v>0.00000000171108925124385</v>
       </c>
     </row>
     <row r="57">
@@ -1797,16 +1797,16 @@
         <v>109</v>
       </c>
       <c r="C57" t="n">
-        <v>1.08340894511047</v>
+        <v>1.08340894511044</v>
       </c>
       <c r="D57" t="n">
-        <v>0.000402057290479981</v>
+        <v>0.000402057290653136</v>
       </c>
       <c r="E57" t="n">
-        <v>1.12879039591932</v>
+        <v>1.12879039591933</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00232096144661853</v>
+        <v>0.00232096144534257</v>
       </c>
     </row>
     <row r="58">
@@ -1817,16 +1817,16 @@
         <v>111</v>
       </c>
       <c r="C58" t="n">
-        <v>1.04022342585366</v>
+        <v>1.04022342585369</v>
       </c>
       <c r="D58" t="n">
-        <v>0.000574793174109503</v>
+        <v>0.000574793174433303</v>
       </c>
       <c r="E58" t="n">
-        <v>1.30254735895524</v>
+        <v>1.3025473589552</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00000102341062939025</v>
+        <v>0.00000102341062804039</v>
       </c>
     </row>
     <row r="59">
@@ -1837,16 +1837,16 @@
         <v>113</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.32977546205069</v>
+        <v>-1.3297754620507</v>
       </c>
       <c r="D59" t="n">
-        <v>0.000105739776998713</v>
+        <v>0.000105739777042544</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.37482406152596</v>
+        <v>-1.37482406152595</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00746314742836923</v>
+        <v>0.00746314742615767</v>
       </c>
     </row>
   </sheetData>

--- a/output/Restab_D62_NTCwRAPA_noDIFF_RAPA.xlsx
+++ b/output/Restab_D62_NTCwRAPA_noDIFF_RAPA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">entrezgene</t>
   </si>
@@ -194,6 +194,9 @@
     <t xml:space="preserve">151354</t>
   </si>
   <si>
+    <t xml:space="preserve">LRATD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">10267</t>
   </si>
   <si>
@@ -266,6 +269,9 @@
     <t xml:space="preserve">85027</t>
   </si>
   <si>
+    <t xml:space="preserve">SMIM3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1026</t>
   </si>
   <si>
@@ -299,6 +305,9 @@
     <t xml:space="preserve">25798</t>
   </si>
   <si>
+    <t xml:space="preserve">BRI3</t>
+  </si>
+  <si>
     <t xml:space="preserve">5054</t>
   </si>
   <si>
@@ -336,6 +345,9 @@
   </si>
   <si>
     <t xml:space="preserve">9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABBR2</t>
   </si>
   <si>
     <t xml:space="preserve">56548</t>
@@ -1263,7 +1275,9 @@
       <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
       <c r="C30" t="n">
         <v>0.947704057585926</v>
       </c>
@@ -1279,10 +1293,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
         <v>1.22017302004064</v>
@@ -1299,10 +1313,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n">
         <v>0.668574745223361</v>
@@ -1319,10 +1333,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="n">
         <v>1.3460266266786</v>
@@ -1339,10 +1353,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" t="n">
         <v>1.32434242356434</v>
@@ -1359,10 +1373,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" t="n">
         <v>-0.639817948911472</v>
@@ -1379,7 +1393,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36"/>
       <c r="C36" t="n">
@@ -1397,10 +1411,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" t="n">
         <v>1.84260959581753</v>
@@ -1417,10 +1431,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" t="n">
         <v>-0.747675255578869</v>
@@ -1437,10 +1451,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" t="n">
         <v>2.03360881123037</v>
@@ -1457,10 +1471,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" t="n">
         <v>0.572995654180002</v>
@@ -1477,10 +1491,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" t="n">
         <v>2.67619674530787</v>
@@ -1497,10 +1511,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" t="n">
         <v>0.679535119424277</v>
@@ -1517,9 +1531,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43"/>
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
       <c r="C43" t="n">
         <v>0.977433707915303</v>
       </c>
@@ -1535,10 +1551,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C44" t="n">
         <v>1.08561097033031</v>
@@ -1555,10 +1571,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C45" t="n">
         <v>-0.987191958211657</v>
@@ -1575,10 +1591,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46" t="n">
         <v>-1.91806156720766</v>
@@ -1595,10 +1611,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47" t="n">
         <v>0.715548920509021</v>
@@ -1615,10 +1631,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C48" t="n">
         <v>-2.28550331268981</v>
@@ -1635,9 +1651,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49"/>
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
       <c r="C49" t="n">
         <v>-0.490305201030294</v>
       </c>
@@ -1653,10 +1671,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C50" t="n">
         <v>1.93049141651382</v>
@@ -1673,10 +1691,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C51" t="n">
         <v>1.20180581723776</v>
@@ -1693,10 +1711,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C52" t="n">
         <v>1.67329044651593</v>
@@ -1713,10 +1731,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C53" t="n">
         <v>0.594783213521469</v>
@@ -1733,10 +1751,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C54" t="n">
         <v>-6.03565027717613</v>
@@ -1753,10 +1771,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C55" t="n">
         <v>1.54974077898462</v>
@@ -1773,9 +1791,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56"/>
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
       <c r="C56" t="n">
         <v>1.7738821178005</v>
       </c>
@@ -1791,10 +1811,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C57" t="n">
         <v>1.08340894511044</v>
@@ -1811,10 +1831,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C58" t="n">
         <v>1.04022342585369</v>
@@ -1831,10 +1851,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C59" t="n">
         <v>-1.3297754620507</v>
